--- a/data/trans_orig/Q17B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2741092007044285</v>
+        <v>0.2731930309763879</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2735401186765131</v>
+        <v>0.2763079086311478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2620883671498116</v>
+        <v>0.2601090138434627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2582760444031967</v>
+        <v>0.2634524277379789</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3804411845231975</v>
+        <v>0.3827676622259004</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.433105095411593</v>
+        <v>0.4341351473418916</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3841988394052671</v>
+        <v>0.3839141047142</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3765659151393192</v>
+        <v>0.3790813497263471</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3508189231465833</v>
+        <v>0.3481051555654197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3675975283353701</v>
+        <v>0.3693793630224881</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3368213326268453</v>
+        <v>0.3364318322596763</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.340891813538537</v>
+        <v>0.3415529756768647</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3968178070036338</v>
+        <v>0.3972152245269596</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3566953599121369</v>
+        <v>0.3564139765686976</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3635566750056158</v>
+        <v>0.3672980444811541</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4185320368132256</v>
+        <v>0.4129101767093544</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.467451543468438</v>
+        <v>0.4660956987292477</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5219107867956081</v>
+        <v>0.5268683514782211</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4907920712267927</v>
+        <v>0.4942265155514884</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5096166084761626</v>
+        <v>0.5203631468331913</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4238174234710481</v>
+        <v>0.4202718491814847</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4354216673401346</v>
+        <v>0.4327855463350699</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4088028787711759</v>
+        <v>0.410198409088659</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4394508604372903</v>
+        <v>0.444821707874325</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.3695751287516489</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2706470454526314</v>
+        <v>0.2706470454526315</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2243879072001572</v>
+        <v>0.2252515833245267</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2457414961364265</v>
+        <v>0.2451750727531287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2814079994095711</v>
+        <v>0.2796648785838063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1890677052381317</v>
+        <v>0.1894893592444017</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3430900026955949</v>
+        <v>0.3414777930122377</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3880973935147273</v>
+        <v>0.3863799221072411</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.348184567729487</v>
+        <v>0.3538168523189741</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2852897803011863</v>
+        <v>0.2851029099949061</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2940702295010048</v>
+        <v>0.2952401312381401</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.330773730912285</v>
+        <v>0.3265790614581018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3344098163184746</v>
+        <v>0.3328562560707999</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2469304060930447</v>
+        <v>0.2467941044302003</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2969412079628582</v>
+        <v>0.2984060215033317</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3338439348379595</v>
+        <v>0.3251527784299544</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4082686159914599</v>
+        <v>0.4035538011562109</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2618314564635059</v>
+        <v>0.2576521517500484</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4509166931999458</v>
+        <v>0.4479303160961493</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.522013120341998</v>
+        <v>0.5180864100719759</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.466449554749907</v>
+        <v>0.4732777992561682</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3492998704281923</v>
+        <v>0.3494435696239084</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3565519818259036</v>
+        <v>0.3592137373734594</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.407959689614821</v>
+        <v>0.4033053093650319</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.414902231203857</v>
+        <v>0.42507669415817</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2956991743722179</v>
+        <v>0.2943360886910803</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1698036223024773</v>
+        <v>0.1693153901996019</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2492260226701083</v>
+        <v>0.2520994394594332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2951225353381793</v>
+        <v>0.2983072640156593</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1829406988818978</v>
+        <v>0.1819251149394276</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2857126302903782</v>
+        <v>0.2849643952581922</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3138486759918214</v>
+        <v>0.3126511317838021</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3923447593212764</v>
+        <v>0.3935835568674506</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2452688987368666</v>
+        <v>0.2496611433646006</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2316491355885023</v>
+        <v>0.2320971816227401</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2949118918147772</v>
+        <v>0.2927652491855992</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3566084062622075</v>
+        <v>0.3561311363232535</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2229140265302364</v>
+        <v>0.2215103332548284</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2542685376294719</v>
+        <v>0.2561715431934584</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3626902782909545</v>
+        <v>0.3587543963918158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.409045084245496</v>
+        <v>0.4070196333450836</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2470923408597302</v>
+        <v>0.245760145079621</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3806567689974461</v>
+        <v>0.3761486968336627</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4054141397098799</v>
+        <v>0.4036158875474566</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5616575229099037</v>
+        <v>0.5727388684128469</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3161159519498806</v>
+        <v>0.3184027752069388</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2947304774648187</v>
+        <v>0.2970655384226196</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3639787544837626</v>
+        <v>0.3634440764489985</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.456292795133687</v>
+        <v>0.4545882491127357</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2680442161636026</v>
+        <v>0.2696940019427148</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.160088645189441</v>
+        <v>0.1611248426209403</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2153948299192522</v>
+        <v>0.2134777287955586</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2325538091747622</v>
+        <v>0.2295631382072253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2139196236978267</v>
+        <v>0.2170721017187778</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2352267728542586</v>
+        <v>0.2339391301361103</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2655767094624378</v>
+        <v>0.2660311783031161</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.279048104621181</v>
+        <v>0.2820615421441942</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2873805790457774</v>
+        <v>0.2887233262905176</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2075691435292691</v>
+        <v>0.2089823220430338</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2566448913523501</v>
+        <v>0.2535102138974517</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2637277272129814</v>
+        <v>0.2675281930029864</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.260240467836227</v>
+        <v>0.2622261277785589</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2810725805770746</v>
+        <v>0.2834878740365633</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3465309913861349</v>
+        <v>0.3319530301533828</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3656299529568391</v>
+        <v>0.3618188884403085</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3192202949881066</v>
+        <v>0.3217757346246327</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3511532168979203</v>
+        <v>0.3470294885549653</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3956193557587528</v>
+        <v>0.3953363361857421</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.40838009612216</v>
+        <v>0.4189670375551797</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3918076330760427</v>
+        <v>0.3991950464850161</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.296099090113745</v>
+        <v>0.2947958006325004</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3472079282660616</v>
+        <v>0.3469017860680528</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3614992092571476</v>
+        <v>0.3626586880488</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3322348668357412</v>
+        <v>0.3368529256456426</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2224099129263556</v>
+        <v>0.2205278692667732</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2705302608907251</v>
+        <v>0.2679029739017249</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2902510512066426</v>
+        <v>0.2942378504223113</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.222685517320305</v>
+        <v>0.2206954357025024</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3451750052875773</v>
+        <v>0.3469497299620264</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3887047536266083</v>
+        <v>0.3910568287034802</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3869914356832942</v>
+        <v>0.3845770924358237</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3076274513108318</v>
+        <v>0.3085810178921892</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2909783135563461</v>
+        <v>0.2901800061637058</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3391102297513994</v>
+        <v>0.3375468469340238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3481461875961156</v>
+        <v>0.3472103881790514</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.272601349321451</v>
+        <v>0.2704040224974298</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.269049382855752</v>
+        <v>0.2675308268021152</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3188137240279824</v>
+        <v>0.3170355738305981</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3472120235371293</v>
+        <v>0.3496954320377514</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2630087643685196</v>
+        <v>0.2658485578387442</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.395434571026351</v>
+        <v>0.3961119679204583</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.44235745518941</v>
+        <v>0.4437860457221576</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4512487567403942</v>
+        <v>0.4479349495922437</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3536554495830427</v>
+        <v>0.3521429529305248</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3249617712766948</v>
+        <v>0.3254514551675683</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.375487337852094</v>
+        <v>0.375296945658219</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3915378230554718</v>
+        <v>0.3904539243622795</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3037466150988595</v>
+        <v>0.3032148107537706</v>
       </c>
     </row>
     <row r="19">
